--- a/Player_dictionary_final.xlsx
+++ b/Player_dictionary_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MadsJorgensen/Dropbox (Personal)/Fantasy/Lookup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathias\Desktop\footballpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2633985-68DF-7E46-A4D9-B3DA063E1C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20CEC9-19E9-4A9C-95FA-47B5A10A5C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="619">
   <si>
     <t>FPL</t>
   </si>
@@ -1884,6 +1884,12 @@
   </si>
   <si>
     <t>Rodri</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo dos Santos Aveiro</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2285,17 +2291,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D491"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B494" sqref="B494"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2432,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2446,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2474,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2572,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2586,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2614,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2712,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2754,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2810,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2824,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2852,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2964,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2992,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3020,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3048,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3076,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3090,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3118,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3146,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3174,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3258,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3272,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3330,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3372,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3414,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3554,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3568,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3610,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3624,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3666,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3708,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3918,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3974,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4002,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4016,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4156,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4184,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4282,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>0.55172413793103448</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>0.64864864864864868</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4436,7 +4444,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4492,7 +4500,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>0.70588235294117652</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4534,7 +4542,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4548,7 +4556,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>0.7407407407407407</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>0.77419354838709675</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4702,7 +4710,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4716,7 +4724,7 @@
         <v>0.81481481481481477</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4744,7 +4752,7 @@
         <v>0.82758620689655171</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4772,7 +4780,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4828,7 +4836,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4912,7 +4920,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5010,7 +5018,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5094,7 +5102,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5178,7 +5186,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5220,7 +5228,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5234,7 +5242,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5262,7 +5270,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5290,7 +5298,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5332,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5388,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5514,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5528,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5556,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5626,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5640,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5682,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5710,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5752,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5780,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5794,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5850,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5878,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5892,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5920,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5934,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5948,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5976,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5990,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6004,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6060,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6088,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6102,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6130,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6144,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6228,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -6298,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -6340,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -6354,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -6368,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -6382,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -6410,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -6424,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -6438,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -6466,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6536,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6550,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6592,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6620,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6634,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6648,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6676,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6690,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6774,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6788,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6802,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6844,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6858,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6872,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6900,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6914,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6942,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6970,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -7012,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -7054,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -7068,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -7110,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -7180,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -7222,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -7236,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -7250,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -7306,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -7320,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -7334,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -7348,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -7362,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -7390,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -7404,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -7418,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -7488,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7516,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7530,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -7558,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -7572,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -7600,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -7614,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -7628,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7642,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -7698,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -7712,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -7726,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -7754,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -7768,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -7782,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -7810,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -7824,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -7852,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -7866,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -7894,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7908,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -7936,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -7950,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -7992,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -8006,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -8034,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -8048,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -8062,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -8090,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -8118,7 +8126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -8132,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -8146,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -8160,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -8174,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -8230,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -8272,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -8300,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -8328,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -8342,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -8356,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -8370,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -8398,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -8412,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -8440,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -8454,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -8468,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -8482,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -8496,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -8510,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -8524,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -8538,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -8552,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -8594,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -8608,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -8622,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -8650,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -8664,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -8678,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -8692,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -8706,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -8720,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -8748,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -8762,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -8776,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -8790,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -8818,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -8832,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -8860,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -8874,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -8888,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -8902,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -8916,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -8944,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -8958,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -8986,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -9014,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -9028,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -9042,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -9056,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -9070,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -9112,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -9154,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -9165,6 +9173,20 @@
         <v>486</v>
       </c>
       <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>618</v>
+      </c>
+      <c r="C492" t="s">
+        <v>617</v>
+      </c>
+      <c r="D492">
         <v>1</v>
       </c>
     </row>
